--- a/ЕСіМ2/Лист Microsoft Excel (1).xlsx
+++ b/ЕСіМ2/Лист Microsoft Excel (1).xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Рис 1-2 Довжини" sheetId="2" r:id="rId2"/>
-    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId4"/>
+    <sheet name="Вар1. Длинна" sheetId="2" r:id="rId2"/>
+    <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
+    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId4"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -475,13 +476,31 @@
   <si>
     <t>г</t>
   </si>
+  <si>
+    <t>ВП-Г</t>
+  </si>
+  <si>
+    <t>ВП-Е</t>
+  </si>
+  <si>
+    <t>Е-Г</t>
+  </si>
+  <si>
+    <t>Г-1</t>
+  </si>
+  <si>
+    <t>Г-2</t>
+  </si>
+  <si>
+    <t>Е-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -656,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +711,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,24 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,23 +807,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -850,6 +859,219 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>12980</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>323849</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -878,23 +1100,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>600074</xdr:colOff>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1043</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
+                  <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -945,21 +1167,21 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>100612</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
+                  <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1008,23 +1230,88 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>164123</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+            <xdr:cNvPr id="5125" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
+                  <a14:compatExt spid="_x0000_s5125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>165127</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5126" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1072,7 +1359,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1230,7 +1517,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2122,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,12 +2423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2159,14 +2446,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2469,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -2358,7 +2645,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
@@ -2377,7 +2664,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="4"/>
@@ -2389,7 +2676,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2407,7 +2694,7 @@
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -2419,7 +2706,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2469,19 +2756,19 @@
         <f>PRODUCT(B16,E16)</f>
         <v>3840</v>
       </c>
-      <c r="G16" s="23">
-        <f>SQRT(($J$16-C16)^2+($K$16-E16)^2)</f>
+      <c r="G16" s="18">
+        <f t="shared" ref="G16:G21" si="0">SQRT(($J$16-C16)^2+($K$16-E16)^2)</f>
         <v>11.334508122550599</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="18">
         <f>PRODUCT(B16,G16)</f>
         <v>181.35212996080958</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="18">
         <f>D22/B22</f>
         <v>98.818181818181813</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="18">
         <f>F22/B22</f>
         <v>228.72727272727272</v>
       </c>
@@ -2504,15 +2791,15 @@
         <v>125</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ref="F16:F21" si="0">PRODUCT(B17,E17)</f>
+        <f t="shared" ref="F17:F21" si="1">PRODUCT(B17,E17)</f>
         <v>2500</v>
       </c>
-      <c r="G17" s="23">
-        <f>SQRT(($J$16-C17)^2+($K$16-E17)^2)</f>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
         <v>103.79752222396597</v>
       </c>
-      <c r="H17" s="23">
-        <f t="shared" ref="H16:H21" si="1">PRODUCT(B17,G17)</f>
+      <c r="H17" s="18">
+        <f t="shared" ref="H17:H21" si="2">PRODUCT(B17,G17)</f>
         <v>2075.9504444793192</v>
       </c>
     </row>
@@ -2534,15 +2821,15 @@
         <v>260</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>9100</v>
+      </c>
+      <c r="G18" s="18">
         <f t="shared" si="0"/>
-        <v>9100</v>
-      </c>
-      <c r="G18" s="23">
-        <f>SQRT(($J$16-C18)^2+($K$16-E18)^2)</f>
         <v>57.975842789108619</v>
       </c>
-      <c r="H18" s="23">
-        <f t="shared" si="1"/>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
         <v>2029.1544976188015</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -2570,18 +2857,18 @@
         <v>260</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>8320</v>
+      </c>
+      <c r="G19" s="18">
         <f t="shared" si="0"/>
-        <v>8320</v>
-      </c>
-      <c r="G19" s="23">
-        <f>SQRT(($J$16-C19)^2+($K$16-E19)^2)</f>
         <v>51.710014695750296</v>
       </c>
-      <c r="H19" s="23">
-        <f t="shared" si="1"/>
+      <c r="H19" s="18">
+        <f t="shared" si="2"/>
         <v>1654.7204702640095</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="19">
         <f>H22/B22</f>
         <v>52.851280464284486</v>
       </c>
@@ -2612,15 +2899,15 @@
         <v>265</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>7155</v>
+      </c>
+      <c r="G20" s="18">
         <f t="shared" si="0"/>
-        <v>7155</v>
-      </c>
-      <c r="G20" s="23">
-        <f>SQRT(($J$16-C20)^2+($K$16-E20)^2)</f>
         <v>43.393738360800633</v>
       </c>
-      <c r="H20" s="23">
-        <f t="shared" si="1"/>
+      <c r="H20" s="18">
+        <f t="shared" si="2"/>
         <v>1171.6309357416171</v>
       </c>
     </row>
@@ -2642,20 +2929,20 @@
         <v>195</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>6825</v>
+      </c>
+      <c r="G21" s="18">
         <f t="shared" si="0"/>
-        <v>6825</v>
-      </c>
-      <c r="G21" s="23">
-        <f>SQRT(($J$16-C21)^2+($K$16-E21)^2)</f>
         <v>45.932937101210946</v>
       </c>
-      <c r="H21" s="23">
-        <f t="shared" si="1"/>
+      <c r="H21" s="18">
+        <f t="shared" si="2"/>
         <v>1607.6527985423832</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -2673,7 +2960,7 @@
         <v>37740</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="23">
+      <c r="H22" s="18">
         <f>SUM(H16:H21)</f>
         <v>8720.4612766069404</v>
       </c>
@@ -2685,7 +2972,7 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2717,7 +3004,7 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2799,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:V7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,7 +3190,7 @@
         <f>ROUND(1.1*W5/10*2,1)</f>
         <v>6.4</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="19">
         <f>SQRT(($L$2-L10)^2+($M$2-M10)^2)</f>
         <v>29.154759474226502</v>
       </c>
@@ -2938,7 +3225,7 @@
         <f t="shared" ref="V6:V7" si="1">ROUND(1.1*W6/10*2,1)</f>
         <v>5.6</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="19">
         <f>SQRT(($L$10-L4)^2+($M$10-M4)^2)</f>
         <v>25.495097567963924</v>
       </c>
@@ -2973,7 +3260,7 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="19">
         <f>SQRT(($L$10-L6)^2+($M$10-M6)^2)</f>
         <v>10</v>
       </c>
@@ -3065,14 +3352,14 @@
         <f>ROUND(1.1*Q18/10*2,1)</f>
         <v>7.1</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="19">
         <f>SQRT(($L$2-L9)^2+($M$2-M9)^2)</f>
         <v>32.310988842807021</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="str">
-        <f t="shared" ref="G18:H19" si="3">G6</f>
+        <f t="shared" ref="G19:H19" si="3">G6</f>
         <v>ВП-Д</v>
       </c>
       <c r="H19" s="1">
@@ -3086,7 +3373,7 @@
         <f>ROUND(1.1*Q19/10*2,1)</f>
         <v>4.7</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="19">
         <f>SQRT(($L$9-L4)^2+($M$9-M4)^2)</f>
         <v>21.540659228538015</v>
       </c>
@@ -3099,7 +3386,7 @@
         <f>ROUND(1.1*Q20/10*2,1)</f>
         <v>3.1</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="19">
         <f>SQRT(($L$9-L6)^2+($M$9-M6)^2)</f>
         <v>13.928388277184119</v>
       </c>
@@ -3112,7 +3399,7 @@
         <f>P19+P18</f>
         <v>11.8</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="22">
         <f>Q19+Q18</f>
         <v>53.851648071345039</v>
       </c>
@@ -3299,6 +3586,476 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3:Z26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:Z25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="str">
+        <f>F4</f>
+        <v>Ділянка</v>
+      </c>
+      <c r="T4" t="str">
+        <f>G4</f>
+        <v>l, км</v>
+      </c>
+      <c r="U4" t="str">
+        <f>H4</f>
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="5" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(1.1*H5/10*2,1)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H5">
+        <f>SQRT(($K$8-K5)^2+($L$8-L5)^2)</f>
+        <v>44.721359549995796</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="L5" s="4">
+        <v>240</v>
+      </c>
+      <c r="S5" t="str">
+        <f>F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:U6" si="0">G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>44.721359549995796</v>
+      </c>
+    </row>
+    <row r="6" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H6/10*2,1)</f>
+        <v>11.9</v>
+      </c>
+      <c r="H6">
+        <f>SQRT(($K$10-K5)^2+($L$10-L5)^2)</f>
+        <v>54.083269131959838</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4">
+        <v>95</v>
+      </c>
+      <c r="L6" s="4">
+        <v>125</v>
+      </c>
+      <c r="S6" t="str">
+        <f>F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>54.083269131959838</v>
+      </c>
+    </row>
+    <row r="7" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H7">
+        <f>SQRT(($K$10-K8)^2+($L$10-L8)^2)</f>
+        <v>65.76473218982953</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="J8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>140</v>
+      </c>
+      <c r="L8" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="J9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4">
+        <v>75</v>
+      </c>
+      <c r="L9" s="4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="J10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4">
+        <v>130</v>
+      </c>
+      <c r="L10" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>103</v>
+      </c>
+      <c r="L12" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>123</v>
+      </c>
+      <c r="L13" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f>F4</f>
+        <v>Ділянка</v>
+      </c>
+      <c r="G22" t="str">
+        <f>G4</f>
+        <v>l, км</v>
+      </c>
+      <c r="H22" t="str">
+        <f>H4</f>
+        <v>mm</v>
+      </c>
+      <c r="O22" t="str">
+        <f>F22</f>
+        <v>Ділянка</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ref="P22:Q22" si="2">G22</f>
+        <v>l, км</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>mm</v>
+      </c>
+      <c r="X22" t="str">
+        <f>O22</f>
+        <v>Ділянка</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" ref="Y22:Z22" si="3">P22</f>
+        <v>l, км</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="3"/>
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="23" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:H25" si="4">F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>44.721359549995796</v>
+      </c>
+      <c r="O23" t="str">
+        <f>F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="P23">
+        <f>G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="Q23">
+        <f>H6</f>
+        <v>54.083269131959838</v>
+      </c>
+      <c r="X23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z23">
+        <f>SQRT(($K$5-K13)^2+($L$5-L13)^2)</f>
+        <v>24.351591323771842</v>
+      </c>
+    </row>
+    <row r="24" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(1.1*Q24/10*2,1)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q24">
+        <f>SQRT(($K$8-K12)^2+($L$8-L12)^2)</f>
+        <v>44.654227123532216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z24">
+        <f>SQRT(($K$8-K13)^2+($L$8-L13)^2)</f>
+        <v>32.756678708318397</v>
+      </c>
+    </row>
+    <row r="25" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="4"/>
+        <v>Е-Г</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>65.76473218982953</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(1.1*Q25/10*2,1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="Q25">
+        <f>SQRT(($K$5-K12)^2+($L$5-L12)^2)</f>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="X25" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z25">
+        <f>SQRT(($K$10-K13)^2+($L$10-L13)^2)</f>
+        <v>37.656340767525464</v>
+      </c>
+    </row>
+    <row r="26" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26">
+        <f>P24+P25</f>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5121" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5121" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5122" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5122" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5123" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5123" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5125" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5126" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -3309,26 +4066,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -3421,19 +4178,19 @@
         <v>31.9</v>
       </c>
       <c r="I6" s="8">
-        <f>'Рис 1-2 Довжини'!H5+'Рис 1-2 Довжини'!H6+'Рис 1-2 Довжини'!H7</f>
+        <f>'Вар1. Длинна'!H5+'Вар1. Длинна'!H6+'Вар1. Длинна'!H7</f>
         <v>25.200000000000003</v>
       </c>
       <c r="J6" s="8">
-        <f>'Рис 1-2 Довжини'!H18*1.6+'Рис 1-2 Довжини'!H19*1.6</f>
+        <f>'Вар1. Длинна'!H18*1.6+'Вар1. Длинна'!H19*1.6</f>
         <v>31.360000000000003</v>
       </c>
       <c r="K6" s="8">
-        <f>('Рис 1-2 Довжини'!P21)*1.6</f>
+        <f>('Вар1. Длинна'!P21)*1.6</f>
         <v>18.880000000000003</v>
       </c>
       <c r="L6" s="8">
-        <f>('Рис 1-2 Довжини'!V8)*1.6</f>
+        <f>('Вар1. Длинна'!V8)*1.6</f>
         <v>22.72</v>
       </c>
       <c r="M6" s="8"/>
@@ -3630,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R21"/>
   <sheetViews>
@@ -3855,11 +4612,11 @@
         <v>а)</v>
       </c>
       <c r="C11" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!G5</f>
+        <f>'Вар1. Длинна'!G5</f>
         <v>ВП-В</v>
       </c>
       <c r="D11" s="13">
-        <f>'Рис 1-2 Довжини'!H5</f>
+        <f>'Вар1. Длинна'!H5</f>
         <v>11.8</v>
       </c>
       <c r="E11">
@@ -3873,11 +4630,11 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!G6</f>
+        <f>'Вар1. Длинна'!G6</f>
         <v>ВП-Д</v>
       </c>
       <c r="D12" s="13">
-        <f>'Рис 1-2 Довжини'!H6</f>
+        <f>'Вар1. Длинна'!H6</f>
         <v>7.8</v>
       </c>
       <c r="E12">
@@ -3891,11 +4648,11 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!G7</f>
+        <f>'Вар1. Длинна'!G7</f>
         <v>В-Д</v>
       </c>
       <c r="D13" s="13">
-        <f>'Рис 1-2 Довжини'!H7</f>
+        <f>'Вар1. Длинна'!H7</f>
         <v>5.6</v>
       </c>
       <c r="E13">
@@ -3924,11 +4681,11 @@
         <v>г)</v>
       </c>
       <c r="C14" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!U5</f>
+        <f>'Вар1. Длинна'!U5</f>
         <v>ВП-2</v>
       </c>
       <c r="D14" s="13">
-        <f>'Рис 1-2 Довжини'!V5</f>
+        <f>'Вар1. Длинна'!V5</f>
         <v>6.4</v>
       </c>
       <c r="E14">
@@ -3950,11 +4707,11 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!U6</f>
+        <f>'Вар1. Длинна'!U6</f>
         <v>2-В</v>
       </c>
       <c r="D15" s="13">
-        <f>'Рис 1-2 Довжини'!V6</f>
+        <f>'Вар1. Длинна'!V6</f>
         <v>5.6</v>
       </c>
       <c r="E15" s="12">
@@ -3966,11 +4723,11 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="str">
-        <f>'Рис 1-2 Довжини'!U7</f>
+        <f>'Вар1. Длинна'!U7</f>
         <v>2-Д</v>
       </c>
       <c r="D16" s="13">
-        <f>'Рис 1-2 Довжини'!V7</f>
+        <f>'Вар1. Длинна'!V7</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E16" s="12">

--- a/ЕСіМ2/Лист Microsoft Excel (1).xlsx
+++ b/ЕСіМ2/Лист Microsoft Excel (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -1036,13 +1036,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>12980</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1072,23 +1072,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1101,13 +1088,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>600074</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>1043</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -1137,23 +1124,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1174,7 +1148,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>100612</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1202,23 +1176,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1231,15 +1192,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>164123</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1267,23 +1228,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1295,16 +1243,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>165127</xdr:rowOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1332,23 +1280,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3086,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,10 +3238,10 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
@@ -3406,12 +3341,12 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3446,7 +3381,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3586,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:Z26"/>
+  <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22:Z25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3532,7 @@
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>43</v>
       </c>
@@ -3634,7 +3569,7 @@
         <v>mm</v>
       </c>
     </row>
-    <row r="5" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>89</v>
       </c>
@@ -3668,7 +3603,7 @@
         <v>44.721359549995796</v>
       </c>
     </row>
-    <row r="6" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>90</v>
       </c>
@@ -3702,7 +3637,7 @@
         <v>54.083269131959838</v>
       </c>
     </row>
-    <row r="7" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>91</v>
       </c>
@@ -3724,7 +3659,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
@@ -3735,7 +3670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J9" s="15" t="s">
         <v>15</v>
       </c>
@@ -3746,7 +3681,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J10" s="15" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +3692,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K11" s="4">
         <v>20</v>
       </c>
@@ -3765,7 +3700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>1</v>
       </c>
@@ -3776,7 +3711,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J13">
         <v>2</v>
       </c>
@@ -3787,7 +3722,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F22" t="str">
         <f>F4</f>
         <v>Ділянка</v>
@@ -3825,7 +3770,7 @@
         <v>mm</v>
       </c>
     </row>
-    <row r="23" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F23" t="str">
         <f t="shared" ref="F23:H25" si="4">F5</f>
         <v>ВП-Г</v>
@@ -3858,7 +3803,7 @@
         <v>24.351591323771842</v>
       </c>
     </row>
-    <row r="24" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
         <v>92</v>
       </c>
@@ -3878,7 +3823,7 @@
         <v>32.756678708318397</v>
       </c>
     </row>
-    <row r="25" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F25" t="str">
         <f t="shared" si="4"/>
         <v>Е-Г</v>
@@ -3910,13 +3855,24 @@
         <v>37.656340767525464</v>
       </c>
     </row>
-    <row r="26" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
         <v>90</v>
       </c>
       <c r="P26">
         <f>P24+P25</f>
         <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4007,15 +3963,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4031,16 +3987,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4058,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,10 +4081,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
         <v>4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -4158,24 +4114,24 @@
         <v>57</v>
       </c>
       <c r="D6" s="8">
-        <f>8.25*2+10.45*2</f>
-        <v>37.4</v>
+        <f>'Вар1. Длинна'!H5*1+'Вар1. Длинна'!H6*1+'Вар1. Длинна'!H7*1</f>
+        <v>25.200000000000003</v>
       </c>
       <c r="E6" s="8">
-        <f>8.25+10.45+7.92</f>
-        <v>26.619999999999997</v>
+        <f>'Вар1. Длинна'!V5*2+'Вар1. Длинна'!V7*2+'Вар1. Длинна'!V6*1.6</f>
+        <v>26.160000000000004</v>
       </c>
       <c r="F6" s="8">
-        <f>(6.05+6.38+5.5)*2</f>
-        <v>35.86</v>
+        <f>'Вар1. Длинна'!H19*2+'Вар1. Длинна'!H18*1.6</f>
+        <v>34.480000000000004</v>
       </c>
       <c r="G6" s="8">
-        <f>(5.17+5.28+6.05)*2</f>
-        <v>33</v>
+        <f>'Вар1. Длинна'!P18*2+'Вар1. Длинна'!P20*2+'Вар1. Длинна'!P19*1.6</f>
+        <v>27.919999999999998</v>
       </c>
       <c r="H6" s="8">
-        <f>(6.71+1.54+7.7)*2</f>
-        <v>31.9</v>
+        <f>'Вар1. Длинна'!H30*2+'Вар1. Длинна'!H29*1.6</f>
+        <v>24.56</v>
       </c>
       <c r="I6" s="8">
         <f>'Вар1. Длинна'!H5+'Вар1. Длинна'!H6+'Вар1. Длинна'!H7</f>
@@ -4201,26 +4157,26 @@
       </c>
       <c r="D7" s="8">
         <f>D6+D5*3</f>
-        <v>49.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" ref="E7:M7" si="0">E6+E5*3</f>
-        <v>38.619999999999997</v>
+        <f>E6+E5*3</f>
+        <v>32.160000000000004</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>41.86</v>
+        <f>F6+F5*3</f>
+        <v>46.480000000000004</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>G6+G5*3</f>
+        <v>33.92</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>37.9</v>
+        <f>H6+H5*3</f>
+        <v>30.56</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7:M7" si="0">I6+I5*3</f>
         <v>37.200000000000003</v>
       </c>
       <c r="J7" s="8">

--- a/ЕСіМ2/Лист Microsoft Excel (1).xlsx
+++ b/ЕСіМ2/Лист Microsoft Excel (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -384,15 +384,9 @@
     <t xml:space="preserve"> км</t>
   </si>
   <si>
-    <t>а</t>
-  </si>
-  <si>
     <t>б</t>
   </si>
   <si>
-    <t>в</t>
-  </si>
-  <si>
     <t>рад</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>1-Д</t>
   </si>
   <si>
-    <t>г</t>
-  </si>
-  <si>
     <t>ВП-Г</t>
   </si>
   <si>
@@ -493,6 +484,12 @@
   </si>
   <si>
     <t>Е-2</t>
+  </si>
+  <si>
+    <t>кільц.</t>
+  </si>
+  <si>
+    <t>рад.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +559,19 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -589,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -671,11 +681,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,6 +772,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2345,7 +2377,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2391,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2600,7 +2632,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3003,7 +3035,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3021,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3129,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1">
         <f>ROUND(1.1*I5/10*2,1)</f>
@@ -3132,7 +3164,7 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1">
         <f>ROUND(1.1*I6/10*2,1)</f>
@@ -3154,7 +3186,7 @@
         <v>265</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" ref="V6:V7" si="1">ROUND(1.1*W6/10*2,1)</f>
@@ -3167,7 +3199,7 @@
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1">
         <f>ROUND(1.1*I7/10*2,1)</f>
@@ -3189,7 +3221,7 @@
         <v>195</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="1"/>
@@ -3238,10 +3270,10 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
@@ -3302,7 +3334,7 @@
         <v>7.8</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P19" s="1">
         <f>ROUND(1.1*Q19/10*2,1)</f>
@@ -3315,7 +3347,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P20" s="1">
         <f>ROUND(1.1*Q20/10*2,1)</f>
@@ -3328,7 +3360,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P21" s="1">
         <f>P19+P18</f>
@@ -3341,12 +3373,12 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3381,7 +3413,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3523,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,7 +3603,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <f>ROUND(1.1*H5/10*2,1)</f>
@@ -3595,17 +3627,17 @@
         <v>ВП-Г</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:U6" si="0">G5</f>
+        <f>G5</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T5:U6" si="0">H5</f>
         <v>44.721359549995796</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H6/10*2,1)</f>
@@ -3639,7 +3671,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -3724,12 +3756,12 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="N17" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -3798,6 +3830,10 @@
       <c r="X23" t="s">
         <v>47</v>
       </c>
+      <c r="Y23">
+        <f>ROUND(1.1*Z23/10*2,1)</f>
+        <v>5.4</v>
+      </c>
       <c r="Z23">
         <f>SQRT(($K$5-K13)^2+($L$5-L13)^2)</f>
         <v>24.351591323771842</v>
@@ -3805,7 +3841,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P24">
         <f>ROUND(1.1*Q24/10*2,1)</f>
@@ -3816,7 +3852,11 @@
         <v>44.654227123532216</v>
       </c>
       <c r="X24" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="Y24">
+        <f>ROUND(1.1*Z24/10*2,1)</f>
+        <v>7.2</v>
       </c>
       <c r="Z24">
         <f>SQRT(($K$8-K13)^2+($L$8-L13)^2)</f>
@@ -3848,7 +3888,11 @@
         <v>5.8309518948453007</v>
       </c>
       <c r="X25" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y24:Y25" si="5">ROUND(1.1*Z25/10*2,1)</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Z25">
         <f>SQRT(($K$10-K13)^2+($L$10-L13)^2)</f>
@@ -3857,7 +3901,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P26">
         <f>P24+P25</f>
@@ -3866,13 +3910,13 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="R32" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4014,11 +4058,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4073,7 +4120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
@@ -4081,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
@@ -4109,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>57</v>
       </c>
@@ -4118,140 +4165,151 @@
         <v>25.200000000000003</v>
       </c>
       <c r="E6" s="8">
+        <f>'Вар1. Длинна'!H18*1.6+'Вар1. Длинна'!H19*2</f>
+        <v>34.480000000000004</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Вар1. Длинна'!P18*2+'Вар1. Длинна'!P20*2+'Вар1. Длинна'!P19*1.6</f>
+        <v>27.919999999999998</v>
+      </c>
+      <c r="G6" s="8">
         <f>'Вар1. Длинна'!V5*2+'Вар1. Длинна'!V7*2+'Вар1. Длинна'!V6*1.6</f>
         <v>26.160000000000004</v>
-      </c>
-      <c r="F6" s="8">
-        <f>'Вар1. Длинна'!H19*2+'Вар1. Длинна'!H18*1.6</f>
-        <v>34.480000000000004</v>
-      </c>
-      <c r="G6" s="8">
-        <f>'Вар1. Длинна'!P18*2+'Вар1. Длинна'!P20*2+'Вар1. Длинна'!P19*1.6</f>
-        <v>27.919999999999998</v>
       </c>
       <c r="H6" s="8">
         <f>'Вар1. Длинна'!H30*2+'Вар1. Длинна'!H29*1.6</f>
         <v>24.56</v>
       </c>
       <c r="I6" s="8">
-        <f>'Вар1. Длинна'!H5+'Вар1. Длинна'!H6+'Вар1. Длинна'!H7</f>
-        <v>25.200000000000003</v>
+        <f>'Вар2. Длинна'!G5+'Вар2. Длинна'!G6+'Вар2. Длинна'!G7</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="J6" s="8">
-        <f>'Вар1. Длинна'!H18*1.6+'Вар1. Длинна'!H19*1.6</f>
-        <v>31.360000000000003</v>
+        <f>'Вар2. Длинна'!T5*1.6+'Вар2. Длинна'!T6*2</f>
+        <v>39.480000000000004</v>
       </c>
       <c r="K6" s="8">
-        <f>('Вар1. Длинна'!P21)*1.6</f>
-        <v>18.880000000000003</v>
+        <f>'Вар2. Длинна'!P26*2+'Вар2. Длинна'!P24*1.6</f>
+        <v>37.880000000000003</v>
       </c>
       <c r="L6" s="8">
-        <f>('Вар1. Длинна'!V8)*1.6</f>
-        <v>22.72</v>
-      </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>'Вар2. Длинна'!Y23*2+'Вар2. Длинна'!Y25*2+'Вар2. Длинна'!Y24*1.6</f>
+        <v>38.92</v>
+      </c>
+      <c r="M6" s="8">
+        <f>'Вар2. Длинна'!G23*2+'Вар2. Длинна'!G25*2</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="30">
         <f>D6+D5*3</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="29">
         <f>E6+E5*3</f>
-        <v>32.160000000000004</v>
+        <v>46.480000000000004</v>
       </c>
       <c r="F7" s="8">
         <f>F6+F5*3</f>
-        <v>46.480000000000004</v>
+        <v>33.92</v>
       </c>
       <c r="G7" s="8">
         <f>G6+G5*3</f>
-        <v>33.92</v>
-      </c>
-      <c r="H7" s="10">
+        <v>32.160000000000004</v>
+      </c>
+      <c r="H7" s="30">
         <f>H6+H5*3</f>
         <v>30.56</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="E7:M7" si="0">I6+I5*3</f>
-        <v>37.200000000000003</v>
+      <c r="I7" s="30">
+        <f t="shared" ref="I7:M7" si="0">I6+I5*3</f>
+        <v>48.2</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>43.36</v>
+        <v>51.480000000000004</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>24.880000000000003</v>
+        <f>K6+K5*3</f>
+        <v>43.88</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="0"/>
-        <v>28.72</v>
+        <v>44.92</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" s="31" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4261,13 +4319,14 @@
     <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3078" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+        <oleObject progId="Equation.3" shapeId="3078" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4286,13 +4345,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3078" r:id="rId3"/>
+        <oleObject progId="Equation.3" shapeId="3078" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3077" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="Equation.3" shapeId="3077" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4311,13 +4370,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3077" r:id="rId5"/>
+        <oleObject progId="Equation.3" shapeId="3077" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="3076" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+        <oleObject progId="Equation.3" shapeId="3076" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4336,7 +4395,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="3076" r:id="rId7"/>
+        <oleObject progId="Equation.3" shapeId="3076" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4347,7 +4406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4355,7 +4414,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q2">
         <f>J5+P5</f>
@@ -4368,10 +4427,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -4380,10 +4439,10 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3">
         <f>K10+N10</f>
@@ -4396,7 +4455,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4404,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <f>8.25</f>
@@ -4448,7 +4507,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>10.45</v>
@@ -4470,7 +4529,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>7.82</v>
@@ -4498,10 +4557,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>6.71</v>
@@ -4517,7 +4576,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>1.54</v>
@@ -4531,7 +4590,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>6.71</v>
@@ -4620,7 +4679,7 @@
         <v>1.4130000000000003</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q13">
         <f>J16+P16</f>

--- a/ЕСіМ2/Лист Microsoft Excel (1).xlsx
+++ b/ЕСіМ2/Лист Microsoft Excel (1).xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Вар1. Длинна" sheetId="2" r:id="rId2"/>
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
-    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId4"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId5"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId4"/>
+    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -384,9 +384,6 @@
     <t xml:space="preserve"> км</t>
   </si>
   <si>
-    <t>б</t>
-  </si>
-  <si>
     <t>рад</t>
   </si>
   <si>
@@ -417,25 +414,7 @@
     <t>Варіант</t>
   </si>
   <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>ВП-Б</t>
-  </si>
-  <si>
     <t>ВП-Д</t>
-  </si>
-  <si>
-    <t>Б-Д</t>
-  </si>
-  <si>
-    <t>ВП-3</t>
-  </si>
-  <si>
-    <t>3-Б</t>
-  </si>
-  <si>
-    <t>3-Д</t>
   </si>
   <si>
     <t>Баланс</t>
@@ -700,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -754,6 +730,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,13 +755,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1328,164 +1304,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3078"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3076"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1789,13 +1607,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1838,13 +1656,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1888,13 +1706,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1938,13 +1756,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1988,13 +1806,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2038,13 +1856,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2084,6 +1902,164 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2390,12 +2366,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>78</v>
+      <c r="A1" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2413,14 +2389,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2436,7 +2412,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -2612,7 +2588,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
@@ -2631,8 +2607,8 @@
       <c r="I11" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>77</v>
+      <c r="A13" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2643,7 +2619,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2661,7 +2637,7 @@
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -2673,7 +2649,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2723,19 +2699,19 @@
         <f>PRODUCT(B16,E16)</f>
         <v>3840</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f t="shared" ref="G16:G21" si="0">SQRT(($J$16-C16)^2+($K$16-E16)^2)</f>
         <v>11.334508122550599</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f>PRODUCT(B16,G16)</f>
         <v>181.35212996080958</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <f>D22/B22</f>
         <v>98.818181818181813</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <f>F22/B22</f>
         <v>228.72727272727272</v>
       </c>
@@ -2761,11 +2737,11 @@
         <f t="shared" ref="F17:F21" si="1">PRODUCT(B17,E17)</f>
         <v>2500</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>103.79752222396597</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f t="shared" ref="H17:H21" si="2">PRODUCT(B17,G17)</f>
         <v>2075.9504444793192</v>
       </c>
@@ -2791,11 +2767,11 @@
         <f t="shared" si="1"/>
         <v>9100</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>57.975842789108619</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f t="shared" si="2"/>
         <v>2029.1544976188015</v>
       </c>
@@ -2827,15 +2803,15 @@
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>51.710014695750296</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f t="shared" si="2"/>
         <v>1654.7204702640095</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <f>H22/B22</f>
         <v>52.851280464284486</v>
       </c>
@@ -2869,11 +2845,11 @@
         <f t="shared" si="1"/>
         <v>7155</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>43.393738360800633</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="2"/>
         <v>1171.6309357416171</v>
       </c>
@@ -2899,17 +2875,17 @@
         <f t="shared" si="1"/>
         <v>6825</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>45.932937101210946</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f t="shared" si="2"/>
         <v>1607.6527985423832</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -2927,7 +2903,7 @@
         <v>37740</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f>SUM(H16:H21)</f>
         <v>8720.4612766069404</v>
       </c>
@@ -2939,7 +2915,7 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2971,7 +2947,7 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3035,7 +3011,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3030,7 @@
   <dimension ref="B1:W38"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3105,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1">
         <f>ROUND(1.1*I5/10*2,1)</f>
@@ -3157,14 +3133,14 @@
         <f>ROUND(1.1*W5/10*2,1)</f>
         <v>6.4</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <f>SQRT(($L$2-L10)^2+($M$2-M10)^2)</f>
         <v>29.154759474226502</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1">
         <f>ROUND(1.1*I6/10*2,1)</f>
@@ -3186,20 +3162,20 @@
         <v>265</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" ref="V6:V7" si="1">ROUND(1.1*W6/10*2,1)</f>
         <v>5.6</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <f>SQRT(($L$10-L4)^2+($M$10-M4)^2)</f>
         <v>25.495097567963924</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1">
         <f>ROUND(1.1*I7/10*2,1)</f>
@@ -3221,13 +3197,13 @@
         <v>195</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="18">
         <f>SQRT(($L$10-L6)^2+($M$10-M6)^2)</f>
         <v>10</v>
       </c>
@@ -3319,7 +3295,7 @@
         <f>ROUND(1.1*Q18/10*2,1)</f>
         <v>7.1</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="18">
         <f>SQRT(($L$2-L9)^2+($M$2-M9)^2)</f>
         <v>32.310988842807021</v>
       </c>
@@ -3334,39 +3310,39 @@
         <v>7.8</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P19" s="1">
         <f>ROUND(1.1*Q19/10*2,1)</f>
         <v>4.7</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <f>SQRT(($L$9-L4)^2+($M$9-M4)^2)</f>
         <v>21.540659228538015</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O20" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P20" s="1">
         <f>ROUND(1.1*Q20/10*2,1)</f>
         <v>3.1</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="18">
         <f>SQRT(($L$9-L6)^2+($M$9-M6)^2)</f>
         <v>13.928388277184119</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O21" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P21" s="1">
         <f>P19+P18</f>
         <v>11.8</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <f>Q19+Q18</f>
         <v>53.851648071345039</v>
       </c>
@@ -3555,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3579,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <f>ROUND(1.1*H5/10*2,1)</f>
@@ -3613,7 +3589,7 @@
         <f>SQRT(($K$8-K5)^2+($L$8-L5)^2)</f>
         <v>44.721359549995796</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="4">
@@ -3637,7 +3613,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H6/10*2,1)</f>
@@ -3647,7 +3623,7 @@
         <f>SQRT(($K$10-K5)^2+($L$10-L5)^2)</f>
         <v>54.083269131959838</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="4">
@@ -3671,7 +3647,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -3681,7 +3657,7 @@
         <f>SQRT(($K$10-K8)^2+($L$10-L8)^2)</f>
         <v>65.76473218982953</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="4">
@@ -3692,7 +3668,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="4">
@@ -3703,7 +3679,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4">
@@ -3714,7 +3690,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4">
@@ -3841,7 +3817,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P24">
         <f>ROUND(1.1*Q24/10*2,1)</f>
@@ -3852,7 +3828,7 @@
         <v>44.654227123532216</v>
       </c>
       <c r="X24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Y24">
         <f>ROUND(1.1*Z24/10*2,1)</f>
@@ -3888,10 +3864,10 @@
         <v>5.8309518948453007</v>
       </c>
       <c r="X25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y24:Y25" si="5">ROUND(1.1*Z25/10*2,1)</f>
+        <f t="shared" ref="Y25" si="5">ROUND(1.1*Z25/10*2,1)</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="Z25">
@@ -3901,7 +3877,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P26">
         <f>P24+P25</f>
@@ -4055,6 +4031,441 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2">
+        <f>J5+P5</f>
+        <v>62</v>
+      </c>
+      <c r="R2">
+        <f>K5+Q5</f>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <f>K10+N10</f>
+        <v>62</v>
+      </c>
+      <c r="R3">
+        <f>L10+O10</f>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Вар1. Длинна'!G5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="D5">
+        <f>'Вар1. Длинна'!H5</f>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="11">
+        <f>J5</f>
+        <v>26.968</v>
+      </c>
+      <c r="F5" s="11">
+        <f>K5</f>
+        <v>11.61</v>
+      </c>
+      <c r="J5" s="12">
+        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
+        <v>26.968</v>
+      </c>
+      <c r="K5" s="12">
+        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
+        <v>11.61</v>
+      </c>
+      <c r="M5">
+        <f>J5-K10</f>
+        <v>-8.032</v>
+      </c>
+      <c r="N5">
+        <f>K5-L10</f>
+        <v>-2.1900000000000013</v>
+      </c>
+      <c r="P5" s="12">
+        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>'Вар1. Длинна'!G6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D6">
+        <f>'Вар1. Длинна'!H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="11">
+        <f>P5</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="F6" s="11">
+        <f>Q5</f>
+        <v>15.99</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>'Вар1. Длинна'!G7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D7">
+        <f>'Вар1. Длинна'!H7</f>
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="11">
+        <f>M5</f>
+        <v>-8.032</v>
+      </c>
+      <c r="F7" s="11">
+        <f>N5</f>
+        <v>-2.1900000000000013</v>
+      </c>
+      <c r="J7">
+        <f>D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="M7">
+        <f>D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="P7">
+        <f>D6</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Вар1. Длинна'!G29</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D8">
+        <f>'Вар1. Длинна'!H29</f>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>19</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="str">
+        <f>'Вар1. Длинна'!G30</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'Вар1. Длинна'!H30</f>
+        <v>7.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>27</f>
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10">
+        <f>E8</f>
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <f>F9</f>
+        <v>13.8</v>
+      </c>
+      <c r="N10">
+        <f>E9</f>
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <f>F9</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Таблиця 1-3'!I4</f>
+        <v>а)</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="4">
+        <f>J15</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="F11" s="4">
+        <f>K15</f>
+        <v>16.891999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E12" s="4">
+        <f>P15</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <f>Q15</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12">
+        <f>J15+P15</f>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <f>K15+Q15</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f>M15</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="F13" s="4">
+        <f>N15</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="Q13">
+        <f>K20+N20</f>
+        <v>67</v>
+      </c>
+      <c r="R13">
+        <f>L20+O20</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'Таблиця 1-3'!L4</f>
+        <v>г)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F15+F16</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J15" s="12">
+        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="K15" s="12">
+        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="M15">
+        <f>P15-N20</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="N15">
+        <f>Q15-O20</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="P15" s="12">
+        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>15.608000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D11</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <f>D13</f>
+        <v>14.5</v>
+      </c>
+      <c r="P17">
+        <f>D12</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>E15</f>
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f>F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="N20">
+        <f>E16</f>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f>F16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
@@ -4069,26 +4480,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -4205,11 +4616,11 @@
       <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="23">
         <f>D6+D5*3</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="22">
         <f>E6+E5*3</f>
         <v>46.480000000000004</v>
       </c>
@@ -4221,11 +4632,11 @@
         <f>G6+G5*3</f>
         <v>32.160000000000004</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="23">
         <f>H6+H5*3</f>
         <v>30.56</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="23">
         <f t="shared" ref="I7:M7" si="0">I6+I5*3</f>
         <v>48.2</v>
       </c>
@@ -4247,69 +4658,69 @@
       </c>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="E9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="I9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="J9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
+      <c r="L9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="M9" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4400,424 +4811,4 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2">
-        <f>J5+P5</f>
-        <v>11</v>
-      </c>
-      <c r="R2">
-        <f>K5+Q5</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3">
-        <f>K10+N10</f>
-        <v>11</v>
-      </c>
-      <c r="R3">
-        <f>L10+O10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <f>8.25</f>
-        <v>8.25</v>
-      </c>
-      <c r="E5" s="11">
-        <f>J5</f>
-        <v>6.1040000000000001</v>
-      </c>
-      <c r="F5" s="11">
-        <f>K5</f>
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="J5" s="12">
-        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
-        <v>6.1040000000000001</v>
-      </c>
-      <c r="K5" s="12">
-        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="M5">
-        <f>J5-K10</f>
-        <v>0.10400000000000009</v>
-      </c>
-      <c r="N5">
-        <f>K5-L10</f>
-        <v>0.16599999999999993</v>
-      </c>
-      <c r="P5" s="12">
-        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="Q5" s="12">
-        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>1.8340000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6">
-        <v>10.45</v>
-      </c>
-      <c r="E6" s="11">
-        <f>P5</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <f>Q5</f>
-        <v>1.8340000000000001</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>7.82</v>
-      </c>
-      <c r="E7" s="11">
-        <f>M5</f>
-        <v>0.10400000000000009</v>
-      </c>
-      <c r="F7" s="11">
-        <f>N5</f>
-        <v>0.16599999999999993</v>
-      </c>
-      <c r="J7">
-        <f>D5</f>
-        <v>8.25</v>
-      </c>
-      <c r="M7">
-        <f>D7</f>
-        <v>7.82</v>
-      </c>
-      <c r="P7">
-        <f>D6</f>
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8">
-        <v>6.71</v>
-      </c>
-      <c r="E8">
-        <f>E9+E10</f>
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <f>F9+F10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>1.54</v>
-      </c>
-      <c r="E9" s="12">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>6.71</v>
-      </c>
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>E9</f>
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <f>F9</f>
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <f>E10</f>
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <f>F10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Таблиця 1-3'!I4</f>
-        <v>а)</v>
-      </c>
-      <c r="C11" s="13" t="str">
-        <f>'Вар1. Длинна'!G5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="D11" s="13">
-        <f>'Вар1. Длинна'!H5</f>
-        <v>11.8</v>
-      </c>
-      <c r="E11">
-        <f>J16</f>
-        <v>5.27</v>
-      </c>
-      <c r="F11">
-        <f>K16</f>
-        <v>3.5870000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="str">
-        <f>'Вар1. Длинна'!G6</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D12" s="13">
-        <f>'Вар1. Длинна'!H6</f>
-        <v>7.8</v>
-      </c>
-      <c r="E12">
-        <f>P16</f>
-        <v>6.73</v>
-      </c>
-      <c r="F12">
-        <f>Q16</f>
-        <v>4.4130000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="str">
-        <f>'Вар1. Длинна'!G7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D13" s="13">
-        <f>'Вар1. Длинна'!H7</f>
-        <v>5.6</v>
-      </c>
-      <c r="E13">
-        <f>M16</f>
-        <v>1.7300000000000004</v>
-      </c>
-      <c r="F13">
-        <f>N16</f>
-        <v>1.4130000000000003</v>
-      </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13">
-        <f>J16+P16</f>
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <f>K16+Q16</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f>'Таблиця 1-3'!L4</f>
-        <v>г)</v>
-      </c>
-      <c r="C14" s="13" t="str">
-        <f>'Вар1. Длинна'!U5</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="D14" s="13">
-        <f>'Вар1. Длинна'!V5</f>
-        <v>6.4</v>
-      </c>
-      <c r="E14">
-        <f>E15+E16</f>
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <f>F15+F16</f>
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <f>K21+N21</f>
-        <v>12</v>
-      </c>
-      <c r="R14">
-        <f>L21+O21</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="str">
-        <f>'Вар1. Длинна'!U6</f>
-        <v>2-В</v>
-      </c>
-      <c r="D15" s="13">
-        <f>'Вар1. Длинна'!V6</f>
-        <v>5.6</v>
-      </c>
-      <c r="E15" s="12">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="str">
-        <f>'Вар1. Длинна'!U7</f>
-        <v>2-Д</v>
-      </c>
-      <c r="D16" s="13">
-        <f>'Вар1. Длинна'!V7</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E16" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12">
-        <v>3</v>
-      </c>
-      <c r="J16" s="12">
-        <f>ROUND((K21*(M18+P18)+N21*P18)/(J18+M18+P18),3)</f>
-        <v>5.27</v>
-      </c>
-      <c r="K16" s="12">
-        <f>ROUND((L21*(M18+P18)+O21*P18)/(J18+M18+P18),3)</f>
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="M16">
-        <f>P16-N21</f>
-        <v>1.7300000000000004</v>
-      </c>
-      <c r="N16">
-        <f>Q16-O21</f>
-        <v>1.4130000000000003</v>
-      </c>
-      <c r="P16" s="12">
-        <f>ROUND((K21*J18+N21*(J18+M18))/(J18+M18+P18),3)</f>
-        <v>6.73</v>
-      </c>
-      <c r="Q16" s="12">
-        <f>ROUND((L21*J18+O21*(J18+M18))/(J18+M18+P18),3)</f>
-        <v>4.4130000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="K17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <f>D11</f>
-        <v>11.8</v>
-      </c>
-      <c r="M18">
-        <f>D13</f>
-        <v>5.6</v>
-      </c>
-      <c r="P18">
-        <f>D12</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <f>E15</f>
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <f>F15</f>
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <f>E16</f>
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <f>F16</f>
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>